--- a/数据整理/stocks/A股/深证主板/000550-江铃汽车.xlsx
+++ b/数据整理/stocks/A股/深证主板/000550-江铃汽车.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.66</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.66</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003238</t>
+          <t>001702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华外延增长主题灵活配置混合</t>
+          <t>东方创新科技混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>16.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7898</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000264</t>
+          <t>001809</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时内需增长混合</t>
+          <t>中信建投智信物联网灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>78.65</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -660,15 +720,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.51</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.75</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010283</t>
+          <t>000264</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投智享生活混合C</t>
+          <t>博时内需增长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -716,15 +796,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.23</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.42</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>004636</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>中信建投智信物联网灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>010283</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>中信建投智享生活混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -790,26 +900,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001702</t>
+          <t>003238</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方创新科技混合</t>
+          <t>新华外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -818,26 +938,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001809</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -846,26 +976,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004636</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000550-江铃汽车.xlsx
+++ b/数据整理/stocks/A股/深证主板/000550-江铃汽车.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000550-江铃汽车.xlsx
+++ b/数据整理/stocks/A股/深证主板/000550-江铃汽车.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.61</v>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1067,13 +1110,385 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>51.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000550-江铃汽车.xlsx
+++ b/数据整理/stocks/A股/深证主板/000550-江铃汽车.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,133 +453,483 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>51.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1015,484 +1365,134 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.91</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4372</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515180</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达中证红利ETF</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.50</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.07</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2248</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1339</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>51.03</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0631</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161222</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>51.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0289</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>63.45</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161907</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家中证红利指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>98.29</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000550-江铃汽车.xlsx
+++ b/数据整理/stocks/A股/深证主板/000550-江铃汽车.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.97</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.61</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -532,6 +549,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013166</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -929,7 +1154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1365,7 +1590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000550-江铃汽车.xlsx
+++ b/数据整理/stocks/A股/深证主板/000550-江铃汽车.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.97</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.61</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013166</t>
+          <t>015784</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东兴宸祥量化混合A</t>
+          <t>中信建投中证1000指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>89.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0392</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009327</t>
+          <t>015785</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东兴兴晟混合A</t>
+          <t>中信建投中证1000指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.70</t>
+          <t>89.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -681,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013167</t>
+          <t>009327</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东兴宸祥量化混合C</t>
+          <t>东兴兴晟混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>79.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -729,26 +746,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.70</t>
+          <t>79.79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -757,6 +774,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013166</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1154,7 +1379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1590,7 +1815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
